--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABD/10/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABD/10/seed5/result_data_RandomForest.xlsx
@@ -586,7 +586,7 @@
         <v>-21.2</v>
       </c>
       <c r="B11" t="n">
-        <v>5.794099999999998</v>
+        <v>6.165599999999999</v>
       </c>
       <c r="C11" t="n">
         <v>-10.8</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.38940000000001</v>
+        <v>-21.3961</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -754,7 +754,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>8.6823</v>
+        <v>8.786899999999994</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -774,7 +774,7 @@
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.737899999999996</v>
+        <v>-7.982099999999998</v>
       </c>
     </row>
     <row r="25">
@@ -824,7 +824,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>5.986599999999999</v>
+        <v>5.682000000000001</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -877,10 +877,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.13579999999999</v>
+        <v>-21.00299999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>5.394599999999998</v>
+        <v>5.740599999999996</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -908,7 +908,7 @@
         <v>-20.6</v>
       </c>
       <c r="B34" t="n">
-        <v>9.962300000000006</v>
+        <v>9.908900000000006</v>
       </c>
       <c r="C34" t="n">
         <v>-11.49</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-20.01289999999999</v>
+        <v>-19.9151</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -961,7 +961,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-20.07569999999999</v>
+        <v>-20.04629999999999</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
@@ -970,7 +970,7 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.553400000000002</v>
+        <v>-7.676799999999999</v>
       </c>
     </row>
     <row r="39">
@@ -1020,7 +1020,7 @@
         <v>-18.32</v>
       </c>
       <c r="B42" t="n">
-        <v>10.1523</v>
+        <v>10.13789999999999</v>
       </c>
       <c r="C42" t="n">
         <v>-13.45</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.92860000000001</v>
+        <v>-21.86890000000001</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1166,7 +1166,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.7769</v>
+        <v>-7.926100000000003</v>
       </c>
     </row>
     <row r="53">
@@ -1185,10 +1185,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.8983</v>
+        <v>-21.82210000000001</v>
       </c>
       <c r="B54" t="n">
-        <v>4.9295</v>
+        <v>5.393499999999998</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.19450000000001</v>
+        <v>-22.2887</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.59929999999997</v>
+        <v>-21.59769999999996</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.59659999999997</v>
+        <v>-21.62349999999997</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-22.0287</v>
+        <v>-21.994</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1530,7 +1530,7 @@
         <v>-13.33</v>
       </c>
       <c r="D78" t="n">
-        <v>-7.289199999999999</v>
+        <v>-7.4255</v>
       </c>
     </row>
     <row r="79">
@@ -1600,7 +1600,7 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-8.953000000000001</v>
+        <v>-9.104599999999998</v>
       </c>
     </row>
     <row r="84">
@@ -1628,7 +1628,7 @@
         <v>-13.1</v>
       </c>
       <c r="D85" t="n">
-        <v>-8.654199999999998</v>
+        <v>-8.737799999999998</v>
       </c>
     </row>
     <row r="86">
@@ -1642,7 +1642,7 @@
         <v>-14.09</v>
       </c>
       <c r="D86" t="n">
-        <v>-8.4621</v>
+        <v>-8.460099999999997</v>
       </c>
     </row>
     <row r="87">
@@ -1703,7 +1703,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-20.78959999999998</v>
+        <v>-20.90469999999999</v>
       </c>
       <c r="B91" t="n">
         <v>7.49</v>
@@ -1782,7 +1782,7 @@
         <v>-10.65</v>
       </c>
       <c r="D96" t="n">
-        <v>-8.582799999999997</v>
+        <v>-8.655899999999997</v>
       </c>
     </row>
     <row r="97">
@@ -1790,7 +1790,7 @@
         <v>-21.33</v>
       </c>
       <c r="B97" t="n">
-        <v>5.855999999999995</v>
+        <v>5.951499999999998</v>
       </c>
       <c r="C97" t="n">
         <v>-10.47</v>
@@ -1815,10 +1815,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-21.82109999999999</v>
+        <v>-21.82339999999999</v>
       </c>
       <c r="B99" t="n">
-        <v>5.636699999999998</v>
+        <v>5.507299999999998</v>
       </c>
       <c r="C99" t="n">
         <v>-13.93</v>
@@ -1846,7 +1846,7 @@
         <v>-21.4</v>
       </c>
       <c r="B101" t="n">
-        <v>4.3195</v>
+        <v>4.310700000000001</v>
       </c>
       <c r="C101" t="n">
         <v>-15.77</v>
@@ -1880,12 +1880,12 @@
         <v>-14.32</v>
       </c>
       <c r="D103" t="n">
-        <v>-7.863899999999997</v>
+        <v>-7.935199999999998</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>-21.47479999999999</v>
+        <v>-21.4156</v>
       </c>
       <c r="B104" t="n">
         <v>7.61</v>
